--- a/10班＿仕様書.xlsx
+++ b/10班＿仕様書.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team10_git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9995" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="293">
   <si>
     <t>「豆腐推し（仮）」のゲーム画面フロー</t>
   </si>
@@ -118,18 +123,12 @@
     <t>タイトル背景画像</t>
   </si>
   <si>
-    <t>title logo</t>
-  </si>
-  <si>
     <t>261x87(95,76)</t>
   </si>
   <si>
     <t>タイトルロゴ</t>
   </si>
   <si>
-    <t>PACEキー/STARTボタンを押してください</t>
-  </si>
-  <si>
     <t>250x25(105,223)</t>
   </si>
   <si>
@@ -142,9 +141,6 @@
     <t>344x181(56,34)</t>
   </si>
   <si>
-    <t>TEAM10</t>
-  </si>
-  <si>
     <t>128x28(334,8)</t>
   </si>
   <si>
@@ -514,114 +510,60 @@
     <t>・豆腐を推す効果音を再生</t>
   </si>
   <si>
-    <t>player1.bmp</t>
-  </si>
-  <si>
     <t>50x40(0,0)</t>
   </si>
   <si>
-    <t>プレイヤー1のキャラクター画像</t>
-  </si>
-  <si>
     <t>・プレイヤーと豆腐どっちが穴に落ちた時効果音を再生、プレイヤーの場合は倒されたにする</t>
   </si>
   <si>
-    <t>home1.bmp</t>
-  </si>
-  <si>
     <t>プレイヤー1の再生ポイント</t>
   </si>
   <si>
     <t>・プレイヤーが豆腐を破壊する時豆腐が壊す動画再生し、効果音を再生する、再生終了したらなくなる。</t>
   </si>
   <si>
-    <t>point1.bmp</t>
-  </si>
-  <si>
     <t>プレイヤー１のポイント表示</t>
   </si>
   <si>
     <t>・空から落ちる鉄豆腐が地面に当たると、そこの地面で穴があける</t>
   </si>
   <si>
-    <t>player2.bmp</t>
-  </si>
-  <si>
     <t>50x40(397,201)</t>
   </si>
   <si>
-    <t>プレイヤー2のキャラクター画像</t>
-  </si>
-  <si>
     <t>・豆腐が穴に落ちると新しい地面を生成する</t>
   </si>
   <si>
-    <t>home2.bmp</t>
-  </si>
-  <si>
     <t>プレイヤー2の再生ポイント</t>
   </si>
   <si>
     <t>・一方のプレイヤーが倒された場合はポイント－１、効果音を再生する</t>
   </si>
   <si>
-    <t>pioint2.bmp</t>
-  </si>
-  <si>
     <t>プレイヤー2のポイント表示</t>
   </si>
   <si>
     <t>・一方のプレイヤーのポイントが先に0になるとゲーム終了でリザルトに移行</t>
   </si>
   <si>
-    <t>timer.bmp</t>
-  </si>
-  <si>
     <t>残り時間表示</t>
   </si>
   <si>
     <t>・ポイント勝負つけてない場合タイマーが０になるとゲーム終了でリザルトに移行</t>
   </si>
   <si>
-    <t>tofu.bmp</t>
-  </si>
-  <si>
     <t>豆腐の画像表示</t>
   </si>
   <si>
-    <t>iron_tofu.bmp</t>
-  </si>
-  <si>
     <t>鉄豆腐の画像表示</t>
   </si>
   <si>
-    <t>ana.bmp</t>
-  </si>
-  <si>
     <t>穴の画像</t>
   </si>
   <si>
-    <t>player-1.bmp</t>
-  </si>
-  <si>
-    <t>プレイヤー1の画像</t>
-  </si>
-  <si>
-    <t>player-2.bmp</t>
-  </si>
-  <si>
-    <t>プレイヤー2の画像</t>
-  </si>
-  <si>
-    <t>kage.bmp</t>
-  </si>
-  <si>
     <t>豆腐の影の画像表示</t>
   </si>
   <si>
-    <t>tofu_half.bmp</t>
-  </si>
-  <si>
     <t>豆腐が壊される動画</t>
   </si>
   <si>
@@ -715,9 +657,6 @@
     <t>勝者の画像表示</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>STARTボタン/スペースキーを押すとゲームタイトルに戻る</t>
   </si>
   <si>
@@ -893,23 +832,297 @@
   </si>
   <si>
     <t>目の前の豆腐はボタン連打二回で壊せる</t>
+  </si>
+  <si>
+    <t>全体サイズ ：(320, 200)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>マップ１マス：( 40,   20)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>player1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>home1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>point1.png</t>
+  </si>
+  <si>
+    <t>player2.png</t>
+  </si>
+  <si>
+    <t>home2.png</t>
+  </si>
+  <si>
+    <t>pioint2.png</t>
+  </si>
+  <si>
+    <t>timer.png</t>
+  </si>
+  <si>
+    <t>tofu.png</t>
+  </si>
+  <si>
+    <t>iron_tofu.png</t>
+  </si>
+  <si>
+    <t>ana.png</t>
+  </si>
+  <si>
+    <t>kage.png</t>
+  </si>
+  <si>
+    <t>tofu_half.png</t>
+  </si>
+  <si>
+    <r>
+      <t>next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>please_push_start_space.png</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>TEAM10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>title_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤー1のキャラクター画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(顔アップ)</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤー2のキャラクター画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(顔アップ)</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤー1の画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(動かす方)</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤー2の画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(動かす方)</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.png</t>
+    </r>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -938,7 +1151,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -956,352 +1170,29 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1455,250 +1346,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1718,16 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1744,69 +1397,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1820,7 +1445,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85718</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="フローチャート: 処理 13"/>
         <xdr:cNvSpPr/>
@@ -1867,11 +1492,6 @@
             </a:rPr>
             <a:t>ゲームスタート</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1890,7 +1510,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>52705</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1932,6 +1552,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1957,7 +1578,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1989,6 +1610,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2014,7 +1636,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="下箭头 10"/>
         <xdr:cNvSpPr/>
@@ -2046,6 +1668,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -2067,7 +1690,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>159385</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="文本框 11"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2223,7 +1846,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57785</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="文本框 12"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2263,6 +1886,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2306,7 +1930,7 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="下箭头 30"/>
         <xdr:cNvSpPr/>
@@ -2458,7 +2082,7 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>84455</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="文本框 45"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2614,7 +2238,7 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="文本框 46"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2780,7 +2404,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="下箭头 47"/>
         <xdr:cNvSpPr/>
@@ -2932,7 +2556,7 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>144145</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="文本框 48"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3077,7 +2701,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>ゲーム結果を表示する</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3085,7 +2708,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>選択肢を表示する</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3093,7 +2715,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>→再戦</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3101,7 +2722,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>→キャラ選択</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3128,7 +2748,7 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="文本框 49"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3273,7 +2893,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>選択肢のキャラ選択を選んだ</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3296,7 +2915,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3437,7 +3056,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="2800"/>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3456,7 +3074,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="下箭头 5"/>
         <xdr:cNvSpPr/>
@@ -3608,7 +3226,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>176530</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3785,9 +3403,6 @@
             </a:rPr>
             <a:t>	</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3806,7 +3421,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>34607</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="下箭头 4"/>
         <xdr:cNvSpPr/>
@@ -3958,7 +3573,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4114,7 +3729,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="文本框 9"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4285,7 +3900,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="文本框 14"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4430,7 +4045,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>何かが押されると</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4457,7 +4071,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="下箭头 15"/>
         <xdr:cNvSpPr/>
@@ -4609,7 +4223,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="文本框 16"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4765,7 +4379,7 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="下箭头 17"/>
         <xdr:cNvSpPr/>
@@ -4917,7 +4531,7 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="文本框 18"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5081,7 +4695,7 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="文本框 19"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5237,7 +4851,7 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="文本框 20"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5384,7 +4998,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>一方プレイヤーが負けた</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5411,7 +5024,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="文本框 21"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5552,7 +5165,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="2800"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5571,7 +5183,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>96837</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="下箭头 23"/>
         <xdr:cNvSpPr/>
@@ -5723,7 +5335,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>127952</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="下箭头 24"/>
         <xdr:cNvSpPr/>
@@ -5875,7 +5487,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="文本框 25"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -6032,7 +5644,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>キーを押すと次の説明画面に</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -6055,7 +5666,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>64135</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -6204,7 +5815,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>のプレイ画面を編集し、動画で遊び方と楽しめる所をプレイヤーに表現する</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -6220,7 +5830,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
             <a:t>1280*720(0,0)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6239,7 +5848,7 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="下箭头 22"/>
         <xdr:cNvSpPr/>
@@ -6391,7 +6000,7 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>21590</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="文本框 27"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -6526,7 +6135,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="2800"/>
             <a:t>プレイ画面に移行</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="2800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -6553,7 +6161,7 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="下箭头 28"/>
         <xdr:cNvSpPr/>
@@ -6705,7 +6313,7 @@
       <xdr:row>92</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="文本框 29"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -6861,7 +6469,7 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="文本框 31"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7006,7 +6614,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>選択肢の終わるを選んだ</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7029,7 +6636,7 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="文本框 32"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7174,7 +6781,6 @@
             <a:rPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
             <a:t>選択肢の再戦を選んだ</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7197,7 +6803,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="文本框 33"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7350,9 +6956,6 @@
             </a:rPr>
             <a:t>	</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7362,7 +6965,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7384,7 +6987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7414,7 +7017,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7456,13 +7059,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7481,7 +7084,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7523,13 +7126,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7548,7 +7151,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="文本框 10"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7590,13 +7193,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7615,7 +7218,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="文本框 11"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7657,13 +7260,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7682,7 +7285,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="文本框 12"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7724,13 +7327,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>5</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7740,7 +7343,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7762,7 +7365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7792,7 +7395,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -7949,7 +7552,6 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>キーを押すと次の説明画面に</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7980,7 +7582,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8010,7 +7612,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="下箭头 5"/>
         <xdr:cNvSpPr/>
@@ -8162,7 +7764,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>69215</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -8204,6 +7806,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -8229,7 +7832,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -8376,7 +7979,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>5</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8395,7 +7997,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>163195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -8542,7 +8144,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8561,7 +8162,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="文本框 9"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -8708,7 +8309,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8727,7 +8327,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -8884,7 +8484,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -8906,7 +8506,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8936,7 +8536,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="文本框 11"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -9081,7 +8681,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9100,7 +8699,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="文本框 12"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -9247,7 +8846,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9266,7 +8864,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="文本框 13"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -9413,7 +9011,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9432,7 +9029,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="文本框 14"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -9579,7 +9176,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9598,7 +9194,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="文本框 15"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -9755,7 +9351,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -9769,7 +9365,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="フローチャート: 処理 46"/>
         <xdr:cNvSpPr/>
@@ -9816,11 +9412,6 @@
             </a:rPr>
             <a:t>００００１２８０</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9835,7 +9426,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>290830</xdr:colOff>
+      <xdr:colOff>227330</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57785</xdr:rowOff>
     </xdr:to>
@@ -9847,7 +9438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9885,7 +9476,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9923,7 +9514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9953,7 +9544,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="文本框 16"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10100,7 +9691,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10119,7 +9709,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="文本框 17"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10266,7 +9856,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10285,7 +9874,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="文本框 18"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10432,7 +10021,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10451,7 +10039,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="文本框 19"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10598,7 +10186,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10617,7 +10204,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="文本框 20"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10764,7 +10351,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>6</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10783,7 +10369,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="文本框 21"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10930,7 +10516,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>7</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10949,7 +10534,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="文本框 22"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11096,7 +10681,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>8</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11115,7 +10699,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="文本框 23"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11262,7 +10846,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11281,7 +10864,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="文本框 24"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11428,7 +11011,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11447,7 +11029,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="文本框 25"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11594,7 +11176,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>11</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11613,7 +11194,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="文本框 26"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11760,7 +11341,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11779,7 +11359,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="文本框 27"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11926,7 +11506,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>13</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11945,7 +11524,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="文本框 28"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12092,7 +11671,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>5</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12102,7 +11680,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -12124,7 +11702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12154,7 +11732,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12301,7 +11879,6 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -12324,7 +11901,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12471,7 +12048,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12490,7 +12066,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12637,7 +12213,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12647,7 +12222,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -12669,7 +12244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12707,7 +12282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12745,7 +12320,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12783,7 +12358,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12821,7 +12396,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12851,7 +12426,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
@@ -12891,6 +12466,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -12912,7 +12488,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
@@ -13072,7 +12648,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
@@ -13232,7 +12808,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直接连接符 10"/>
         <xdr:cNvCxnSpPr>
@@ -13278,7 +12854,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="直接连接符 11"/>
         <xdr:cNvCxnSpPr/>
@@ -13330,7 +12906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13368,7 +12944,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13398,7 +12974,7 @@
       <xdr:row>100</xdr:row>
       <xdr:rowOff>134302</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="下箭头 13"/>
         <xdr:cNvSpPr/>
@@ -13558,7 +13134,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13596,7 +13172,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13626,7 +13202,7 @@
       <xdr:row>113</xdr:row>
       <xdr:rowOff>23177</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="下箭头 16"/>
         <xdr:cNvSpPr/>
@@ -13786,7 +13362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13824,7 +13400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14125,98 +13701,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="28.2" spans="1:1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="17:17">
-      <c r="Q21" s="38"/>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q21" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="5.37962962962963" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:2">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="11:11">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="11:11">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="11:11">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="11:11">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="11:11">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="11:11">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="11:11">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="11:11">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="11:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K15" t="s">
         <v>10</v>
       </c>
@@ -14224,7 +13799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="11:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K16" t="s">
         <v>12</v>
       </c>
@@ -14232,7 +13807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="11:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K17" t="s">
         <v>14</v>
       </c>
@@ -14240,7 +13815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="11:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K18" t="s">
         <v>16</v>
       </c>
@@ -14248,7 +13823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="11:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K19" t="s">
         <v>18</v>
       </c>
@@ -14256,12 +13831,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:11">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -14275,7 +13850,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" ht="15.15" spans="1:11">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
         <v>22</v>
@@ -14302,7 +13877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="10">
         <v>1</v>
@@ -14323,95 +13898,95 @@
       <c r="J27" s="10"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="10">
         <v>2</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>32</v>
+      <c r="C28" s="41" t="s">
+        <v>286</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="16"/>
       <c r="J28" s="10"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="10">
         <v>3</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
+      <c r="C29" s="41" t="s">
+        <v>284</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="16"/>
       <c r="J29" s="10"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="27">
+      <c r="B30" s="24">
         <v>4</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B31" s="29">
+        <v>5</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="s">
+      <c r="F31" s="30"/>
+      <c r="G31" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="29"/>
-    </row>
-    <row r="31" ht="15.15" spans="2:11">
-      <c r="B31" s="32">
-        <v>5</v>
-      </c>
-      <c r="C31" s="34" t="s">
+      <c r="H31" s="30"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
-    </row>
-    <row r="33" ht="15.15" spans="1:1">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" ht="15.15" spans="1:11">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>22</v>
@@ -14436,36 +14011,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="10">
         <v>1</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="11"/>
       <c r="I35" s="16"/>
       <c r="J35" s="10"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" ht="15.15" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="13">
         <v>2</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -14475,234 +14050,233 @@
       <c r="K36" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="26.4" spans="1:1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="18" t="s">
+      <c r="O22" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="T22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
-      <c r="B22" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="O22" t="s">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="T22" t="s">
+      <c r="O24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" t="s">
+      <c r="O25" t="s">
         <v>56</v>
       </c>
-      <c r="O24" t="s">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
-      <c r="B25" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="E30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>69</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>73</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
         <v>75</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E36" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
+      <c r="F36" t="s">
         <v>80</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E37" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
+      <c r="F37" t="s">
         <v>84</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="E44" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="G44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="G44" t="s">
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" ht="15.15" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -14716,7 +14290,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" ht="15.15" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
         <v>22</v>
@@ -14743,70 +14317,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="10">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="16"/>
       <c r="J51" s="10"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="10">
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="16"/>
       <c r="J52" s="10"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="10">
         <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="16"/>
       <c r="J53" s="10"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" ht="15.15" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="13"/>
       <c r="C54" s="5"/>
@@ -14819,12 +14393,12 @@
       <c r="J54" s="13"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="57" ht="15.15" spans="1:1">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="7" t="s">
         <v>22</v>
@@ -14849,26 +14423,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="10">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+        <v>105</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
       <c r="H59" s="11"/>
       <c r="I59" s="16"/>
       <c r="J59" s="10"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" ht="15.15" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="13"/>
       <c r="C60" s="17"/>
@@ -14882,94 +14456,93 @@
       <c r="K60" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="26.4" spans="1:1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="10:10">
-      <c r="J4" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="10:10">
-      <c r="J6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="10:10">
-      <c r="J7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="10:10">
-      <c r="J8" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="10:10">
-      <c r="J9" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="10:10">
-      <c r="J10" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="10:10">
-      <c r="J11" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
-      <c r="J13" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="10:10">
-      <c r="J14" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="10:10">
-      <c r="J15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="10:10">
-      <c r="J16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:11">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -14983,7 +14556,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" ht="15.15" spans="1:15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
         <v>22</v>
@@ -15011,95 +14584,95 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="16"/>
       <c r="J22" s="10"/>
       <c r="K22" s="6"/>
       <c r="T22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="16"/>
       <c r="J23" s="10"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="10">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
       <c r="G24" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="16"/>
       <c r="J24" s="10"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" ht="15.15" spans="1:11">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="13">
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="17"/>
       <c r="J25" s="13"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="28" ht="15.15" spans="1:1">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" ht="15.15" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="s">
         <v>22</v>
@@ -15124,36 +14697,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+        <v>127</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="11"/>
       <c r="I30" s="16"/>
       <c r="J30" s="10"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" ht="15.15" spans="1:11">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="13">
         <v>2</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -15163,245 +14736,245 @@
       <c r="K31" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="4.87962962962963" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:1">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" ht="19.2" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="19.2" spans="1:1">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" ht="19.2" spans="1:1">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" ht="19.2" spans="1:1">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C21" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="N22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="14:20">
-      <c r="N22" s="2" t="s">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J24" t="s">
         <v>135</v>
       </c>
-      <c r="T22" t="s">
+      <c r="N24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
-      <c r="J23" t="s">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="24" spans="10:14">
-      <c r="J24" t="s">
+      <c r="N25" t="s">
         <v>138</v>
       </c>
-      <c r="N24" t="s">
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="10:14">
-      <c r="J25" t="s">
+      <c r="N26" t="s">
         <v>140</v>
       </c>
-      <c r="N25" t="s">
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="10:14">
-      <c r="J26" t="s">
+      <c r="N27" t="s">
         <v>142</v>
       </c>
-      <c r="N26" t="s">
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="10:14">
-      <c r="J27" t="s">
+      <c r="N28" t="s">
         <v>144</v>
       </c>
-      <c r="N27" t="s">
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J29" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="10:14">
-      <c r="J28" t="s">
+      <c r="N29" t="s">
         <v>146</v>
       </c>
-      <c r="N28" t="s">
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="10:14">
-      <c r="J29" t="s">
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J31" t="s">
         <v>148</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="J32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="30" spans="10:15">
-      <c r="J30" t="s">
+      <c r="N32" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J33" t="s">
         <v>150</v>
       </c>
-      <c r="O30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="10:18">
-      <c r="J31" t="s">
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J34" t="s">
         <v>151</v>
       </c>
-      <c r="Q31" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="10:18">
-      <c r="J32" t="s">
+      <c r="N34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J35" t="s">
         <v>152</v>
       </c>
-      <c r="N32" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="N35" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="10:18">
-      <c r="J33" t="s">
+      <c r="R35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>78</v>
+      </c>
+      <c r="R37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>82</v>
+      </c>
+      <c r="R38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N39" t="s">
         <v>153</v>
       </c>
-      <c r="N33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O33" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="10:18">
-      <c r="J34" t="s">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N40" t="s">
         <v>154</v>
       </c>
-      <c r="N34" t="s">
-        <v>76</v>
-      </c>
-      <c r="O34" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>74</v>
-      </c>
-      <c r="R34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="10:18">
-      <c r="J35" t="s">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N41" t="s">
         <v>155</v>
       </c>
-      <c r="N35" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="14:18">
-      <c r="N37" t="s">
-        <v>83</v>
-      </c>
-      <c r="O37" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>81</v>
-      </c>
-      <c r="R37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="14:18">
-      <c r="N38" t="s">
-        <v>87</v>
-      </c>
-      <c r="O38" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>85</v>
-      </c>
-      <c r="R38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" ht="15.15" spans="1:14">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -15415,10 +14988,10 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="N42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
         <v>22</v>
@@ -15431,469 +15004,477 @@
         <v>24</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="24" t="s">
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="22" t="s">
         <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="10">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="29"/>
+      <c r="G44" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="26"/>
       <c r="N44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="10">
         <v>2</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>164</v>
+      <c r="C45" s="41" t="s">
+        <v>271</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="29"/>
+      <c r="G45" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="26"/>
       <c r="N45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="10">
         <v>3</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>168</v>
+      <c r="C46" s="41" t="s">
+        <v>272</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="29"/>
+      <c r="G46" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="26"/>
       <c r="N46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="10">
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="29"/>
+      <c r="G47" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="26"/>
       <c r="N47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="10">
         <v>5</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>174</v>
+      <c r="C48" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="29"/>
+      <c r="G48" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="26"/>
       <c r="N48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="10">
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="29"/>
+      <c r="G49" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="26"/>
       <c r="N49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="10">
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="29"/>
+      <c r="G50" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="26"/>
       <c r="N50" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="10">
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="29"/>
+      <c r="G51" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="26"/>
       <c r="N51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="10">
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="29"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="G52" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="10">
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="29"/>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="G53" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B54" s="10">
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="29"/>
-    </row>
-    <row r="55" spans="2:12">
+      <c r="G54" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B55" s="10">
         <v>12</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>193</v>
+      <c r="C55" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="29"/>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="G55" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <v>13</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>195</v>
+      <c r="C56" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="29"/>
-    </row>
-    <row r="57" spans="2:12">
+      <c r="G56" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B57" s="10">
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="29"/>
-    </row>
-    <row r="58" ht="15.15" spans="2:12">
+      <c r="G57" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="26"/>
+      <c r="N57" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13">
         <v>15</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="33"/>
-    </row>
-    <row r="62" ht="15.15" spans="1:1">
+      <c r="G58" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
+      <c r="N58" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" ht="15.15" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="24" t="s">
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K63" s="25" t="s">
+      <c r="K63" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
-      <c r="B64" s="27">
+      <c r="B64" s="24">
         <v>1</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="29"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="27">
+      <c r="C64" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="26"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B65" s="24">
         <v>2</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="29"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="27">
+      <c r="C65" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="26"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" s="24">
         <v>3</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="29"/>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="27">
+      <c r="C66" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="26"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" s="24">
         <v>4</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="29"/>
-    </row>
-    <row r="68" ht="15.15" spans="2:11">
-      <c r="B68" s="32">
+      <c r="C67" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="26"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B68" s="29">
         <v>4</v>
       </c>
-      <c r="C68" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="33"/>
+      <c r="C68" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -15907,114 +15488,113 @@
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G58:I58"/>
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:1">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="10:10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J4" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="10:10">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="10:10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="10:10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="10:10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="11:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="11:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="11:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="10:10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="10:10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="10:10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -16028,7 +15608,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>22</v>
@@ -16055,13 +15635,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="10">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
@@ -16069,52 +15649,52 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="3" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="16"/>
       <c r="J24" s="10"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="12"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="16"/>
       <c r="J25" s="10"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>231</v>
+      <c r="C26" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
       <c r="G26" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="16"/>
       <c r="J26" s="10"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" ht="15.15" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="5"/>
@@ -16127,12 +15707,12 @@
       <c r="J27" s="13"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="29" ht="15.15" spans="1:1">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" ht="15.15" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
         <v>22</v>
@@ -16157,17 +15737,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="3" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -16176,17 +15756,17 @@
       <c r="J31" s="10"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="3" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -16195,7 +15775,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" ht="15.15" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="13"/>
       <c r="C33" s="17"/>
@@ -16209,435 +15789,434 @@
       <c r="K33" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="16.2" spans="1:1">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="G4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="7:7">
-      <c r="G5" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="7:7">
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="9:10">
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="7:11">
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="7:11">
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="7:11">
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="7:11">
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="7:11">
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="7:11">
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
-      <c r="G18" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H71" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H72" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
-      <c r="G21" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H73" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
-      <c r="G23" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H74" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="7:7">
-      <c r="G24" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H75" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
-      <c r="J28" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H76" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
-      <c r="H34" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="8:8">
-      <c r="H36" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
-      <c r="H37" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="8:8">
-      <c r="H39" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H97" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="9:9">
-      <c r="I55" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="13:13">
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="13:13">
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="13:13">
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="13:13">
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="13:13">
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="8:8">
-      <c r="H71" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="8:8">
-      <c r="H72" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="8:8">
-      <c r="H73" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="8:8">
-      <c r="H74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="8:8">
-      <c r="H75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="8:8">
-      <c r="H76" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>290</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/10班＿仕様書.xlsx
+++ b/10班＿仕様書.xlsx
@@ -501,9 +501,6 @@
     <t>・豆腐がプレイヤーに推されたら移動開始、続止まる場所を計算する。</t>
   </si>
   <si>
-    <t>gameplay_2.png</t>
-  </si>
-  <si>
     <t>ゲーム画面背景</t>
   </si>
   <si>
@@ -1110,6 +1107,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>2.png</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>map01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
     </r>
     <phoneticPr fontId="7"/>
   </si>
@@ -13904,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
@@ -13925,7 +13938,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
@@ -13966,7 +13979,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="31" t="s">
@@ -14746,8 +14759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15027,8 +15040,8 @@
       <c r="B44" s="10">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>158</v>
+      <c r="C44" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
@@ -15036,7 +15049,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
@@ -15044,7 +15057,7 @@
       <c r="K44" s="24"/>
       <c r="L44" s="26"/>
       <c r="N44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
@@ -15053,15 +15066,15 @@
         <v>2</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -15069,7 +15082,7 @@
       <c r="K45" s="24"/>
       <c r="L45" s="26"/>
       <c r="N45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
@@ -15078,13 +15091,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
       <c r="G46" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -15092,7 +15105,7 @@
       <c r="K46" s="24"/>
       <c r="L46" s="26"/>
       <c r="N46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
@@ -15101,13 +15114,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
       <c r="G47" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -15115,7 +15128,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="26"/>
       <c r="N47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -15124,15 +15137,15 @@
         <v>5</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -15140,7 +15153,7 @@
       <c r="K48" s="24"/>
       <c r="L48" s="26"/>
       <c r="N48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
@@ -15149,13 +15162,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
       <c r="G49" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -15163,7 +15176,7 @@
       <c r="K49" s="24"/>
       <c r="L49" s="26"/>
       <c r="N49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
@@ -15172,13 +15185,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
       <c r="G50" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
@@ -15186,7 +15199,7 @@
       <c r="K50" s="24"/>
       <c r="L50" s="26"/>
       <c r="N50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
@@ -15195,13 +15208,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
       <c r="G51" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -15209,7 +15222,7 @@
       <c r="K51" s="24"/>
       <c r="L51" s="26"/>
       <c r="N51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
@@ -15218,13 +15231,13 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
       <c r="F52" s="6"/>
       <c r="G52" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -15238,13 +15251,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
       <c r="F53" s="6"/>
       <c r="G53" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -15257,13 +15270,13 @@
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
       <c r="F54" s="6"/>
       <c r="G54" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
@@ -15276,13 +15289,13 @@
         <v>12</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="6"/>
       <c r="G55" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -15295,13 +15308,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
       <c r="F56" s="6"/>
       <c r="G56" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -15314,13 +15327,13 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
       <c r="G57" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -15328,7 +15341,7 @@
       <c r="K57" s="24"/>
       <c r="L57" s="26"/>
       <c r="N57" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O57" s="11"/>
     </row>
@@ -15337,13 +15350,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="9"/>
       <c r="G58" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
@@ -15351,7 +15364,7 @@
       <c r="K58" s="29"/>
       <c r="L58" s="30"/>
       <c r="N58" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O58" s="9"/>
     </row>
@@ -15391,11 +15404,11 @@
         <v>1</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="26"/>
       <c r="E64" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -15409,11 +15422,11 @@
         <v>2</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -15427,11 +15440,11 @@
         <v>3</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -15445,11 +15458,11 @@
         <v>4</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -15463,11 +15476,11 @@
         <v>4</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
@@ -15516,82 +15529,82 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -15641,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
@@ -15649,7 +15662,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="16"/>
@@ -15662,13 +15675,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="12"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="16"/>
@@ -15681,13 +15694,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
       <c r="G26" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="16"/>
@@ -15743,11 +15756,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -15762,11 +15775,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -15807,28 +15820,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -15930,87 +15943,87 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -16018,12 +16031,12 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -16043,27 +16056,27 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -16071,147 +16084,147 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/10班＿仕様書.xlsx
+++ b/10班＿仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="2" r:id="rId1"/>
@@ -835,10 +835,6 @@
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>マップ１マス：( 40,   20)</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1124,6 +1120,10 @@
       </rPr>
       <t>.png</t>
     </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>マップ１マス：( 106,   50)</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1410,20 +1410,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13916,8 +13916,8 @@
       <c r="B28" s="10">
         <v>2</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>285</v>
+      <c r="C28" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
@@ -13937,8 +13937,8 @@
       <c r="B29" s="10">
         <v>3</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>283</v>
+      <c r="C29" s="38" t="s">
+        <v>282</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
@@ -13978,8 +13978,8 @@
       <c r="B31" s="29">
         <v>5</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>284</v>
+      <c r="C31" s="39" t="s">
+        <v>283</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="31" t="s">
@@ -14759,8 +14759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15017,11 +15017,11 @@
         <v>24</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
       <c r="J43" s="21" t="s">
         <v>26</v>
       </c>
@@ -15040,19 +15040,19 @@
       <c r="B44" s="10">
         <v>1</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>292</v>
+      <c r="C44" s="38" t="s">
+        <v>291</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="25"/>
       <c r="K44" s="24"/>
       <c r="L44" s="26"/>
@@ -15065,19 +15065,19 @@
       <c r="B45" s="10">
         <v>2</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>270</v>
+      <c r="C45" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
+      <c r="G45" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="25"/>
       <c r="K45" s="24"/>
       <c r="L45" s="26"/>
@@ -15090,17 +15090,17 @@
       <c r="B46" s="10">
         <v>3</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>271</v>
+      <c r="C46" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="25"/>
       <c r="K46" s="24"/>
       <c r="L46" s="26"/>
@@ -15114,16 +15114,16 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="25"/>
       <c r="K47" s="24"/>
       <c r="L47" s="26"/>
@@ -15137,18 +15137,18 @@
         <v>5</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="G48" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
       <c r="J48" s="25"/>
       <c r="K48" s="24"/>
       <c r="L48" s="26"/>
@@ -15162,16 +15162,16 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="25"/>
       <c r="K49" s="24"/>
       <c r="L49" s="26"/>
@@ -15185,16 +15185,16 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="25"/>
       <c r="K50" s="24"/>
       <c r="L50" s="26"/>
@@ -15208,16 +15208,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
       <c r="J51" s="25"/>
       <c r="K51" s="24"/>
       <c r="L51" s="26"/>
@@ -15231,16 +15231,16 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="25"/>
       <c r="K52" s="24"/>
       <c r="L52" s="26"/>
@@ -15251,16 +15251,16 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="25"/>
       <c r="K53" s="24"/>
       <c r="L53" s="26"/>
@@ -15270,16 +15270,16 @@
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="25"/>
       <c r="K54" s="24"/>
       <c r="L54" s="26"/>
@@ -15288,17 +15288,17 @@
       <c r="B55" s="10">
         <v>12</v>
       </c>
-      <c r="C55" s="41" t="s">
-        <v>290</v>
+      <c r="C55" s="38" t="s">
+        <v>289</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
+      <c r="G55" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="25"/>
       <c r="K55" s="24"/>
       <c r="L55" s="26"/>
@@ -15307,17 +15307,17 @@
       <c r="B56" s="10">
         <v>13</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>291</v>
+      <c r="C56" s="38" t="s">
+        <v>290</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
+      <c r="G56" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
       <c r="J56" s="25"/>
       <c r="K56" s="24"/>
       <c r="L56" s="26"/>
@@ -15327,21 +15327,21 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="25"/>
       <c r="K57" s="24"/>
       <c r="L57" s="26"/>
-      <c r="N57" s="39" t="s">
-        <v>269</v>
+      <c r="N57" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="O57" s="11"/>
     </row>
@@ -15350,20 +15350,20 @@
         <v>15</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
       <c r="J58" s="28"/>
       <c r="K58" s="29"/>
       <c r="L58" s="30"/>
-      <c r="N58" s="40" t="s">
+      <c r="N58" s="37" t="s">
         <v>268</v>
       </c>
       <c r="O58" s="9"/>
@@ -15491,22 +15491,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G58:I58"/>
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15693,8 +15693,8 @@
       <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>282</v>
+      <c r="C26" s="38" t="s">
+        <v>281</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>

--- a/10班＿仕様書.xlsx
+++ b/10班＿仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="2" r:id="rId1"/>
@@ -1123,7 +1123,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>マップ１マス：( 106,   50)</t>
+    <t>マップ１マス：( 112,   64)</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1414,7 +1414,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1423,7 +1423,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14759,8 +14759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15017,11 +15017,11 @@
         <v>24</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="21" t="s">
         <v>26</v>
       </c>
@@ -15355,11 +15355,11 @@
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
       <c r="J58" s="28"/>
       <c r="K58" s="29"/>
       <c r="L58" s="30"/>
@@ -15491,22 +15491,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G58:I58"/>
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10班＿仕様書.xlsx
+++ b/10班＿仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="18465" windowHeight="9990" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="2" r:id="rId1"/>
@@ -835,6 +835,10 @@
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>マップ１マス：( 40,   20)</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1120,10 +1124,6 @@
       </rPr>
       <t>.png</t>
     </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>マップ１マス：( 112,   64)</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1410,20 +1410,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13916,8 +13916,8 @@
       <c r="B28" s="10">
         <v>2</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>284</v>
+      <c r="C28" s="41" t="s">
+        <v>285</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
@@ -13937,8 +13937,8 @@
       <c r="B29" s="10">
         <v>3</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>282</v>
+      <c r="C29" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
@@ -13978,8 +13978,8 @@
       <c r="B31" s="29">
         <v>5</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>283</v>
+      <c r="C31" s="42" t="s">
+        <v>284</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="31" t="s">
@@ -14759,8 +14759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15017,11 +15017,11 @@
         <v>24</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="21" t="s">
         <v>26</v>
       </c>
@@ -15040,19 +15040,19 @@
       <c r="B44" s="10">
         <v>1</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>291</v>
+      <c r="C44" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="25"/>
       <c r="K44" s="24"/>
       <c r="L44" s="26"/>
@@ -15065,19 +15065,19 @@
       <c r="B45" s="10">
         <v>2</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>269</v>
+      <c r="C45" s="41" t="s">
+        <v>270</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
+      <c r="G45" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
       <c r="J45" s="25"/>
       <c r="K45" s="24"/>
       <c r="L45" s="26"/>
@@ -15090,17 +15090,17 @@
       <c r="B46" s="10">
         <v>3</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>270</v>
+      <c r="C46" s="41" t="s">
+        <v>271</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
       <c r="J46" s="25"/>
       <c r="K46" s="24"/>
       <c r="L46" s="26"/>
@@ -15114,16 +15114,16 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
       <c r="J47" s="25"/>
       <c r="K47" s="24"/>
       <c r="L47" s="26"/>
@@ -15137,18 +15137,18 @@
         <v>5</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="G48" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
       <c r="J48" s="25"/>
       <c r="K48" s="24"/>
       <c r="L48" s="26"/>
@@ -15162,16 +15162,16 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
       <c r="J49" s="25"/>
       <c r="K49" s="24"/>
       <c r="L49" s="26"/>
@@ -15185,16 +15185,16 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
       <c r="J50" s="25"/>
       <c r="K50" s="24"/>
       <c r="L50" s="26"/>
@@ -15208,16 +15208,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
       <c r="J51" s="25"/>
       <c r="K51" s="24"/>
       <c r="L51" s="26"/>
@@ -15231,16 +15231,16 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="3"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
       <c r="J52" s="25"/>
       <c r="K52" s="24"/>
       <c r="L52" s="26"/>
@@ -15251,16 +15251,16 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="3"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
       <c r="J53" s="25"/>
       <c r="K53" s="24"/>
       <c r="L53" s="26"/>
@@ -15270,16 +15270,16 @@
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
       <c r="J54" s="25"/>
       <c r="K54" s="24"/>
       <c r="L54" s="26"/>
@@ -15288,17 +15288,17 @@
       <c r="B55" s="10">
         <v>12</v>
       </c>
-      <c r="C55" s="38" t="s">
-        <v>289</v>
+      <c r="C55" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
+      <c r="G55" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
       <c r="J55" s="25"/>
       <c r="K55" s="24"/>
       <c r="L55" s="26"/>
@@ -15307,17 +15307,17 @@
       <c r="B56" s="10">
         <v>13</v>
       </c>
-      <c r="C56" s="38" t="s">
-        <v>290</v>
+      <c r="C56" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="3"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
+      <c r="G56" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
       <c r="J56" s="25"/>
       <c r="K56" s="24"/>
       <c r="L56" s="26"/>
@@ -15327,21 +15327,21 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
       <c r="J57" s="25"/>
       <c r="K57" s="24"/>
       <c r="L57" s="26"/>
-      <c r="N57" s="36" t="s">
-        <v>292</v>
+      <c r="N57" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="O57" s="11"/>
     </row>
@@ -15350,20 +15350,20 @@
         <v>15</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="28"/>
       <c r="K58" s="29"/>
       <c r="L58" s="30"/>
-      <c r="N58" s="37" t="s">
+      <c r="N58" s="40" t="s">
         <v>268</v>
       </c>
       <c r="O58" s="9"/>
@@ -15693,8 +15693,8 @@
       <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>281</v>
+      <c r="C26" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
